--- a/lotto.xlsx
+++ b/lotto.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jsh\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE25976D-8949-44BD-AA99-A253360BA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C1C6FB-21AE-44F9-A10C-67749DF23DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EEB2E1E3-1BE1-4E3D-A859-DF88AD18CC2B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{BE5C42C3-C4E4-481D-8F63-C098C77CF395}"/>
   </bookViews>
   <sheets>
-    <sheet name="excel" sheetId="2" r:id="rId1"/>
+    <sheet name="excel (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -9597,11 +9597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A8C4D-0AB1-487B-BC88-682CADB46E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E75E5-9086-45E2-A932-361CAF13A1EA}">
   <dimension ref="A1:T603"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
